--- a/Outputs/Exp_ER_Run_1_exclusions/Behavior Tables/run_1_exp_ER_GroupStats.xlsx
+++ b/Outputs/Exp_ER_Run_1_exclusions/Behavior Tables/run_1_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1120" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3584" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>
@@ -236,10 +236,10 @@
         <v>94.851089433209282</v>
       </c>
       <c r="M2" s="0">
-        <v>353.66660606060606</v>
+        <v>23.6617380952381</v>
       </c>
       <c r="N2" s="0">
-        <v>319.84621549649125</v>
+        <v>0.46873809523812143</v>
       </c>
       <c r="O2" s="0">
         <v>55.174911616161616</v>
@@ -286,10 +286,10 @@
         <v>52.026435588073873</v>
       </c>
       <c r="M3" s="0">
-        <v>397.56672839506177</v>
+        <v>4.6750925925925975</v>
       </c>
       <c r="N3" s="0">
-        <v>392.89545386620108</v>
+        <v>3.0000925925925861</v>
       </c>
       <c r="O3" s="0">
         <v>49.230747474747474</v>
@@ -436,10 +436,10 @@
         <v>32.445788119055862</v>
       </c>
       <c r="M6" s="0">
-        <v>148.09680774582563</v>
+        <v>33.759076994434139</v>
       </c>
       <c r="N6" s="0">
-        <v>116.40939252317875</v>
+        <v>30.920219735241631</v>
       </c>
       <c r="O6" s="0">
         <v>152.61239141414143</v>
@@ -486,10 +486,10 @@
         <v>28.774989139876318</v>
       </c>
       <c r="M7" s="0">
-        <v>1040.2828486997637</v>
+        <v>4.5804649330181091</v>
       </c>
       <c r="N7" s="0">
-        <v>1035.7047389852667</v>
+        <v>3.1236569658456412</v>
       </c>
       <c r="O7" s="0">
         <v>142.6355580808081</v>
@@ -536,10 +536,10 @@
         <v>21.638603620997976</v>
       </c>
       <c r="M8" s="0">
-        <v>32.609873737373789</v>
+        <v>15.010087412587461</v>
       </c>
       <c r="N8" s="0">
-        <v>19.722777343566197</v>
+        <v>7.346702019931973</v>
       </c>
       <c r="O8" s="0">
         <v>134.51170454545456</v>
@@ -736,10 +736,10 @@
         <v>23.788565180214913</v>
       </c>
       <c r="M12" s="0">
-        <v>26.354545454545452</v>
+        <v>12.333508869179601</v>
       </c>
       <c r="N12" s="0">
-        <v>13.701793655896806</v>
+        <v>9.8029889376389967</v>
       </c>
       <c r="O12" s="0">
         <v>199.73377771632252</v>
@@ -786,10 +786,10 @@
         <v>40.85824070286597</v>
       </c>
       <c r="M13" s="0">
-        <v>21.135924908424894</v>
+        <v>19.927182009203349</v>
       </c>
       <c r="N13" s="0">
-        <v>16.128570580172109</v>
+        <v>16.400849980317769</v>
       </c>
       <c r="O13" s="0">
         <v>303.31753303220256</v>
@@ -836,10 +836,10 @@
         <v>24.286484581621387</v>
       </c>
       <c r="M14" s="0">
-        <v>5.5271225410272899</v>
+        <v>2.7721361782764631</v>
       </c>
       <c r="N14" s="0">
-        <v>2.0287618468809314</v>
+        <v>0.80241171456229377</v>
       </c>
       <c r="O14" s="0">
         <v>267.33984166052119</v>
@@ -886,10 +886,10 @@
         <v>15.288884851420656</v>
       </c>
       <c r="M15" s="0">
-        <v>153.85781914893616</v>
+        <v>4.4332005048683554</v>
       </c>
       <c r="N15" s="0">
-        <v>139.68209569849427</v>
+        <v>2.7078677770521984</v>
       </c>
       <c r="O15" s="0">
         <v>232.62889435840711</v>
@@ -936,10 +936,10 @@
         <v>18.926942876932522</v>
       </c>
       <c r="M16" s="0">
-        <v>6.5944806286549449</v>
+        <v>4.3762445175438325</v>
       </c>
       <c r="N16" s="0">
-        <v>2.9815631145294823</v>
+        <v>3.0698780687411533</v>
       </c>
       <c r="O16" s="0">
         <v>234.19765385324484</v>
@@ -1036,10 +1036,10 @@
         <v>23.73947135047451</v>
       </c>
       <c r="M18" s="0">
-        <v>11.130788742326205</v>
+        <v>1.9590106037980695</v>
       </c>
       <c r="N18" s="0">
-        <v>10.298023004072533</v>
+        <v>1.1271712663588465</v>
       </c>
       <c r="O18" s="0">
         <v>224.29709266287762</v>
@@ -1086,10 +1086,10 @@
         <v>18.043927879852916</v>
       </c>
       <c r="M19" s="0">
-        <v>22.756924349881764</v>
+        <v>12.140168036750454</v>
       </c>
       <c r="N19" s="0">
-        <v>11.970343998428387</v>
+        <v>10.486219585572158</v>
       </c>
       <c r="O19" s="0">
         <v>231.2937369714848</v>
@@ -1136,10 +1136,10 @@
         <v>20.764553129472031</v>
       </c>
       <c r="M20" s="0">
-        <v>26.063053026005971</v>
+        <v>1.7777766032417457</v>
       </c>
       <c r="N20" s="0">
-        <v>25.017059411989298</v>
+        <v>0.73744561453864199</v>
       </c>
       <c r="O20" s="0">
         <v>216.95505695843082</v>
@@ -1286,10 +1286,10 @@
         <v>21.414072475827666</v>
       </c>
       <c r="M23" s="0">
-        <v>62.353869208277104</v>
+        <v>49.294385635635628</v>
       </c>
       <c r="N23" s="0">
-        <v>6.6706906014428116</v>
+        <v>2.3866009056009561</v>
       </c>
       <c r="O23" s="0">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>31.547252917911358</v>
       </c>
       <c r="M24" s="0">
-        <v>73.974932411674374</v>
+        <v>51.698167388167406</v>
       </c>
       <c r="N24" s="0">
-        <v>16.240969040799367</v>
+        <v>3.7990714959687186</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>21.406774628607646</v>
       </c>
       <c r="M25" s="0">
-        <v>59.239109477124202</v>
+        <v>27.196688034188028</v>
       </c>
       <c r="N25" s="0">
-        <v>20.600013534668932</v>
+        <v>8.6497416547554113</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>9.8361577864530005</v>
       </c>
       <c r="M26" s="0">
-        <v>712.77165624999986</v>
+        <v>54.178375000000003</v>
       </c>
       <c r="N26" s="0">
-        <v>528.8527637070913</v>
+        <v>20.624044454001435</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>81.634347346363143</v>
       </c>
       <c r="M28" s="0">
-        <v>408.49803571428578</v>
+        <v>77.246785714285764</v>
       </c>
       <c r="N28" s="0">
-        <v>394.63896185799797</v>
+        <v>63.439811296656927</v>
       </c>
       <c r="O28" s="0">
         <v>30.487661077407033</v>
@@ -1586,10 +1586,10 @@
         <v>96.757751627453601</v>
       </c>
       <c r="M29" s="0">
-        <v>38.689833333333297</v>
+        <v>22.954583333333282</v>
       </c>
       <c r="N29" s="0">
-        <v>29.227737454247816</v>
+        <v>13.645962524833655</v>
       </c>
       <c r="O29" s="0">
         <v>31.568709765756658</v>
@@ -1986,10 +1986,10 @@
         <v>22.293496809607955</v>
       </c>
       <c r="M37" s="0">
-        <v>20.886539352476746</v>
+        <v>9.6504954835549679</v>
       </c>
       <c r="N37" s="0">
-        <v>17.257642155611503</v>
+        <v>6.1563132457794767</v>
       </c>
       <c r="O37" s="0">
         <v>290.23110604145603</v>
@@ -2186,10 +2186,10 @@
         <v>17.806248903123869</v>
       </c>
       <c r="M41" s="0">
-        <v>19.464472095472111</v>
+        <v>11.390299018549033</v>
       </c>
       <c r="N41" s="0">
-        <v>16.408100994187322</v>
+        <v>8.3532096075288571</v>
       </c>
       <c r="O41" s="0">
         <v>375.57591599023181</v>
@@ -2286,10 +2286,10 @@
         <v>7.9056941504209481</v>
       </c>
       <c r="M43" s="0">
-        <v>5.2184260150391086</v>
+        <v>1.9084913270855535</v>
       </c>
       <c r="N43" s="0">
-        <v>3.6032597336629859</v>
+        <v>0.31021744977352117</v>
       </c>
       <c r="O43" s="0">
         <v>383.61258931163297</v>
@@ -2386,10 +2386,10 @@
         <v>7.8209121377667108</v>
       </c>
       <c r="M45" s="0">
-        <v>10.529094252136396</v>
+        <v>3.0277750430968475</v>
       </c>
       <c r="N45" s="0">
-        <v>7.6801452598437727</v>
+        <v>0.85814886059136419</v>
       </c>
       <c r="O45" s="0">
         <v>449.58810441666338</v>
@@ -2486,10 +2486,10 @@
         <v>14.705441169852742</v>
       </c>
       <c r="M47" s="0">
-        <v>7.1004521994016381</v>
+        <v>5.0621165285273966</v>
       </c>
       <c r="N47" s="0">
-        <v>5.1629981886439014</v>
+        <v>3.1283511914091418</v>
       </c>
       <c r="O47" s="0">
         <v>513.8272666367609</v>
@@ -2536,10 +2536,10 @@
         <v>26.830874628556806</v>
       </c>
       <c r="M48" s="0">
-        <v>44.868343694006796</v>
+        <v>28.169218006798552</v>
       </c>
       <c r="N48" s="0">
-        <v>13.863510244363205</v>
+        <v>3.835051942746778</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>12.499166638887036</v>
       </c>
       <c r="M49" s="0">
-        <v>81.126033709371384</v>
+        <v>41.481066056528007</v>
       </c>
       <c r="N49" s="0">
-        <v>23.066768379343994</v>
+        <v>6.4676063981615446</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>27.72483844257107</v>
       </c>
       <c r="M50" s="0">
-        <v>112.81111924896807</v>
+        <v>51.25082735336369</v>
       </c>
       <c r="N50" s="0">
-        <v>45.637095780270101</v>
+        <v>10.083202747395545</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>14.89966442575134</v>
       </c>
       <c r="M51" s="0">
-        <v>85.151072916666664</v>
+        <v>50.864619047619058</v>
       </c>
       <c r="N51" s="0">
-        <v>23.811573798323398</v>
+        <v>11.058761170998695</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -2736,10 +2736,10 @@
         <v>7.932002689527196</v>
       </c>
       <c r="M52" s="0">
-        <v>115.98422564935065</v>
+        <v>69.532358909608917</v>
       </c>
       <c r="N52" s="0">
-        <v>10.228451936315727</v>
+        <v>4.8064861098131333</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -2786,10 +2786,10 @@
         <v>10.880984943162698</v>
       </c>
       <c r="M53" s="0">
-        <v>15.148148729086234</v>
+        <v>9.1013244047619093</v>
       </c>
       <c r="N53" s="0">
-        <v>9.8239217643137824</v>
+        <v>3.991216895007049</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>47.415495006028003</v>
       </c>
       <c r="M54" s="0">
-        <v>100.89525000000005</v>
+        <v>91.702250000000049</v>
       </c>
       <c r="N54" s="0">
-        <v>49.433192434124315</v>
+        <v>52.309783585187631</v>
       </c>
       <c r="O54" s="0">
         <v>49.33018162137072</v>
@@ -2886,10 +2886,10 @@
         <v>27.593401989122931</v>
       </c>
       <c r="M55" s="0">
-        <v>141.89625816993464</v>
+        <v>51.455563725490251</v>
       </c>
       <c r="N55" s="0">
-        <v>73.927180537633461</v>
+        <v>21.75945441140103</v>
       </c>
       <c r="O55" s="0">
         <v>93.829869324688872</v>
@@ -2936,10 +2936,10 @@
         <v>18.484227510682363</v>
       </c>
       <c r="M56" s="0">
-        <v>316.13756944444469</v>
+        <v>111.13240277777798</v>
       </c>
       <c r="N56" s="0">
-        <v>191.5541463289558</v>
+        <v>57.185060798970881</v>
       </c>
       <c r="O56" s="0">
         <v>85.914262242844146</v>
@@ -3036,10 +3036,10 @@
         <v>41.451779213925185</v>
       </c>
       <c r="M58" s="0">
-        <v>254.87643651362981</v>
+        <v>37.410186513629824</v>
       </c>
       <c r="N58" s="0">
-        <v>216.90647487391831</v>
+        <v>25.078190842782707</v>
       </c>
       <c r="O58" s="0">
         <v>129.69972599847051</v>
@@ -3136,10 +3136,10 @@
         <v>54.371216343453881</v>
       </c>
       <c r="M60" s="0">
-        <v>240.86123376623382</v>
+        <v>30.219983766233796</v>
       </c>
       <c r="N60" s="0">
-        <v>205.73744162590495</v>
+        <v>23.862224708583536</v>
       </c>
       <c r="O60" s="0">
         <v>144.36928159017151</v>
@@ -3236,10 +3236,10 @@
         <v>51.130551858290495</v>
       </c>
       <c r="M62" s="0">
-        <v>63.284617511520715</v>
+        <v>16.87390322580643</v>
       </c>
       <c r="N62" s="0">
-        <v>50.646603542887981</v>
+        <v>7.9864428856878664</v>
       </c>
       <c r="O62" s="0">
         <v>244.89575579183273</v>
@@ -3336,10 +3336,10 @@
         <v>39.955183226543546</v>
       </c>
       <c r="M64" s="0">
-        <v>277.11520341614903</v>
+        <v>17.592396825396818</v>
       </c>
       <c r="N64" s="0">
-        <v>147.66242831732211</v>
+        <v>11.22804745419527</v>
       </c>
       <c r="O64" s="0">
         <v>154.52829727388831</v>
@@ -3736,10 +3736,10 @@
         <v>27.378139089426806</v>
       </c>
       <c r="M72" s="0">
-        <v>41.252125356125411</v>
+        <v>1.8440316742081995</v>
       </c>
       <c r="N72" s="0">
-        <v>39.263467648758571</v>
+        <v>0.30555812393291731</v>
       </c>
       <c r="O72" s="0">
         <v>136.73925324593159</v>
@@ -3836,10 +3836,10 @@
         <v>11.786291472158096</v>
       </c>
       <c r="M74" s="0">
-        <v>183.32300152581354</v>
+        <v>16.369510162601589</v>
       </c>
       <c r="N74" s="0">
-        <v>88.377589568202993</v>
+        <v>8.6308172550425439</v>
       </c>
       <c r="O74" s="0">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>20.84216479479359</v>
       </c>
       <c r="M75" s="0">
-        <v>32.965080303030255</v>
+        <v>23.313863636363582</v>
       </c>
       <c r="N75" s="0">
-        <v>9.9504327044832088</v>
+        <v>4.9049738027167082</v>
       </c>
       <c r="O75" s="0">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>16.537835408541227</v>
       </c>
       <c r="M76" s="0">
-        <v>63.242218782249758</v>
+        <v>43.195152505446636</v>
       </c>
       <c r="N76" s="0">
-        <v>19.665820912103769</v>
+        <v>9.2561597738825743</v>
       </c>
       <c r="O76" s="0">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>5.8094750193111251</v>
       </c>
       <c r="M77" s="0">
-        <v>381.05205555555546</v>
+        <v>48.69258585858578</v>
       </c>
       <c r="N77" s="0">
-        <v>276.2812167556873</v>
+        <v>30.332014214071357</v>
       </c>
       <c r="O77" s="0">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>4.0078048854703496</v>
       </c>
       <c r="M78" s="0">
-        <v>37.360999999999983</v>
+        <v>23.107190476190443</v>
       </c>
       <c r="N78" s="0">
-        <v>21.819808683854195</v>
+        <v>10.521640976853586</v>
       </c>
       <c r="O78" s="0">
         <v>0</v>
@@ -4086,10 +4086,10 @@
         <v>6.1508806957486453</v>
       </c>
       <c r="M79" s="0">
-        <v>38.451499999999996</v>
+        <v>32.129369047619043</v>
       </c>
       <c r="N79" s="0">
-        <v>24.417876522736975</v>
+        <v>26.156632927660752</v>
       </c>
       <c r="O79" s="0">
         <v>0</v>
@@ -4136,10 +4136,10 @@
         <v>44.869022350243675</v>
       </c>
       <c r="M80" s="0">
-        <v>1063.3013020833332</v>
+        <v>91.523802083333308</v>
       </c>
       <c r="N80" s="0">
-        <v>1031.4433958219545</v>
+        <v>60.214361225812041</v>
       </c>
       <c r="O80" s="0">
         <v>35.643795727897533</v>
@@ -4186,10 +4186,10 @@
         <v>31.041303129862317</v>
       </c>
       <c r="M81" s="0">
-        <v>120.48485294117646</v>
+        <v>9.0831372549019473</v>
       </c>
       <c r="N81" s="0">
-        <v>111.4228940463704</v>
+        <v>3.0721522824056016</v>
       </c>
       <c r="O81" s="0">
         <v>35.645907099343958</v>
@@ -4236,10 +4236,10 @@
         <v>20.84216479479359</v>
       </c>
       <c r="M82" s="0">
-        <v>118.48537414965993</v>
+        <v>64.515374149660033</v>
       </c>
       <c r="N82" s="0">
-        <v>99.261363097749296</v>
+        <v>46.265739656121212</v>
       </c>
       <c r="O82" s="0">
         <v>91.717447789753194</v>
@@ -4436,10 +4436,10 @@
         <v>36.695537875878045</v>
       </c>
       <c r="M86" s="0">
-        <v>486.47905590321238</v>
+        <v>22.699889236545765</v>
       </c>
       <c r="N86" s="0">
-        <v>477.8406249970069</v>
+        <v>15.027946630982756</v>
       </c>
       <c r="O86" s="0">
         <v>131.42224027647612</v>
@@ -4936,10 +4936,10 @@
         <v>49.133110017583867</v>
       </c>
       <c r="M96" s="0">
-        <v>5.6813395096360955</v>
+        <v>3.166241146858646</v>
       </c>
       <c r="N96" s="0">
-        <v>4.5610124404365298</v>
+        <v>2.0570511673570331</v>
       </c>
       <c r="O96" s="0">
         <v>268.40736537770943</v>
@@ -5136,10 +5136,10 @@
         <v>7.4204110398279148</v>
       </c>
       <c r="M100" s="0">
-        <v>89.166922858617141</v>
+        <v>12.742114898989911</v>
       </c>
       <c r="N100" s="0">
-        <v>60.793615020866916</v>
+        <v>2.9456457084949434</v>
       </c>
       <c r="O100" s="0">
         <v>0</v>
@@ -5186,10 +5186,10 @@
         <v>11.353230083695712</v>
       </c>
       <c r="M101" s="0">
-        <v>85.753621212121189</v>
+        <v>74.970176767676733</v>
       </c>
       <c r="N101" s="0">
-        <v>32.665891807168251</v>
+        <v>35.808465353830158</v>
       </c>
       <c r="O101" s="0">
         <v>0</v>
@@ -5236,10 +5236,10 @@
         <v>15.984367363145781</v>
       </c>
       <c r="M102" s="0">
-        <v>30.971405753968256</v>
+        <v>28.027489787581708</v>
       </c>
       <c r="N102" s="0">
-        <v>8.7429399907108269</v>
+        <v>8.2770623115138342</v>
       </c>
       <c r="O102" s="0">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>13.091823147802346</v>
       </c>
       <c r="M103" s="0">
-        <v>63.054248188405822</v>
+        <v>50.048248188405822</v>
       </c>
       <c r="N103" s="0">
-        <v>25.408073813990757</v>
+        <v>13.7666739712057</v>
       </c>
       <c r="O103" s="0">
         <v>0</v>
@@ -5336,10 +5336,10 @@
         <v>20.701751133660167</v>
       </c>
       <c r="M104" s="0">
-        <v>203.38939393939398</v>
+        <v>33.090916666666715</v>
       </c>
       <c r="N104" s="0">
-        <v>113.75895942899314</v>
+        <v>17.019987539369062</v>
       </c>
       <c r="O104" s="0">
         <v>0</v>
